--- a/test_participants.xlsx
+++ b/test_participants.xlsx
@@ -849,7 +849,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Secular</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
